--- a/story/Activity Story 活动剧情/act5d0 Code of Brawl 喧闹法则 喧騒の掟/level_act5d0_05_end.xlsx
+++ b/story/Activity Story 活动剧情/act5d0 Code of Brawl 喧闹法则 喧騒の掟/level_act5d0_05_end.xlsx
@@ -572,7 +572,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mafioso A"]   I dare you to say "what" again...!
+    <t xml:space="preserve">[name="Mafioso A"]   I dare you to say 'what' again...!
 </t>
   </si>
   <si>
@@ -684,7 +684,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Waai Fu"]   Was "garbage," the word you just used?
+    <t xml:space="preserve">[name="Waai Fu"]   Was 'garbage,' the word you just used?
 </t>
   </si>
   <si>

--- a/story/Activity Story 活动剧情/act5d0 Code of Brawl 喧闹法则 喧騒の掟/level_act5d0_05_end.xlsx
+++ b/story/Activity Story 活动剧情/act5d0 Code of Brawl 喧闹法则 喧騒の掟/level_act5d0_05_end.xlsx
@@ -556,7 +556,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">8:52 PM \ Cloudy
+    <t xml:space="preserve">8:52 P.M. \ Cloudy
 </t>
   </si>
   <si>
